--- a/data_processed/20250808/BTCUSDVOLSURFACE_REGULARIZED_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDVOLSURFACE_REGULARIZED_20250808.xlsx
@@ -6169,7 +6169,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18257,7 +18257,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18402,7 +18402,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -33861,7 +33861,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -33969,7 +33969,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -34298,7 +34298,7 @@
       </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34381,7 +34381,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34439,7 +34439,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34468,7 +34468,7 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34497,7 +34497,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34526,7 +34526,7 @@
       </c>
       <c r="G1345" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -34555,7 +34555,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34758,7 +34758,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -34920,7 +34920,7 @@
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35619,7 +35619,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -35706,7 +35706,7 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -35735,7 +35735,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35843,7 +35843,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -35930,7 +35930,7 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -36334,7 +36334,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36421,7 +36421,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36479,7 +36479,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -36508,7 +36508,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36537,7 +36537,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36566,7 +36566,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36624,7 +36624,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36769,7 +36769,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -36910,7 +36910,7 @@
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -37621,7 +37621,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37650,7 +37650,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37679,7 +37679,7 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -37820,7 +37820,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37849,7 +37849,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,BF,CA</t>
         </is>
       </c>
     </row>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -38543,7 +38543,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38601,7 +38601,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38630,7 +38630,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38688,7 +38688,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -38717,7 +38717,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -38912,7 +38912,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41748,7 +41748,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -41831,7 +41831,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41860,7 +41860,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -41947,7 +41947,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42204,7 +42204,7 @@
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42907,7 +42907,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -42936,7 +42936,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -42965,7 +42965,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -42994,7 +42994,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43023,7 +43023,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43081,7 +43081,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43139,7 +43139,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250808/BTCUSDVOLSURFACE_REGULARIZED_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDVOLSURFACE_REGULARIZED_20250808.xlsx
@@ -37932,7 +37932,7 @@
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250808/BTCUSDVOLSURFACE_REGULARIZED_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDVOLSURFACE_REGULARIZED_20250808.xlsx
@@ -6169,7 +6169,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18257,7 +18257,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -33861,7 +33861,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -33969,7 +33969,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34439,7 +34439,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34526,7 +34526,7 @@
       </c>
       <c r="G1345" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34920,7 +34920,7 @@
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35619,7 +35619,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35735,7 +35735,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35843,7 +35843,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35930,7 +35930,7 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36334,7 +36334,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36508,7 +36508,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36537,7 +36537,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36566,7 +36566,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36624,7 +36624,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36769,7 +36769,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36910,7 +36910,7 @@
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37650,7 +37650,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37820,7 +37820,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37849,7 +37849,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>CS,CA,BF</t>
+          <t>BF,CA,CS</t>
         </is>
       </c>
     </row>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38543,7 +38543,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38601,7 +38601,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38630,7 +38630,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38717,7 +38717,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38912,7 +38912,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41831,7 +41831,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41860,7 +41860,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42204,7 +42204,7 @@
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42907,7 +42907,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42936,7 +42936,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42994,7 +42994,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43023,7 +43023,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43081,7 +43081,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43139,7 +43139,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
